--- a/input/input_patient_1.xlsx
+++ b/input/input_patient_1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5D1688-0B3D-49D2-8F2D-EB155C2204FA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0408F193-B062-4E27-B528-C708720CD4A4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Emotion</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>Degradation</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Metrics</t>
   </si>
 </sst>
 </file>
@@ -346,10 +352,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -359,25 +365,33 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>6</v>
       </c>
     </row>
